--- a/Analysis/figTbl_guidebook/tbl_tradeOff&decomposition_FR75.xlsx
+++ b/Analysis/figTbl_guidebook/tbl_tradeOff&decomposition_FR75.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim_riskSharing\Analysis\figTbl_guidebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A62AC-8C14-48EC-91CF-7611AACB8D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B147F211-3A10-41F2-84E1-B23BBA0F7712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Decomposition_old" sheetId="10" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="14" r:id="rId8"/>
+    <sheet name="DC_low" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="143">
   <si>
     <t>runname</t>
   </si>
@@ -478,6 +479,18 @@
   <si>
     <t>Actives only</t>
   </si>
+  <si>
+    <t>DC with DB returns/losses, 7.5% withdraw rate</t>
+  </si>
+  <si>
+    <t>DC with 50% DB returns/losses, 7.5% withdraw rate</t>
+  </si>
+  <si>
+    <t>DC with 50% DB returns/losses, 3.75% withdraw rate</t>
+  </si>
+  <si>
+    <t>PV benefit up to age 85</t>
+  </si>
 </sst>
 </file>
 
@@ -766,7 +779,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1234,6 +1247,11 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1874,7 +1892,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J33"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707EB6C1-2A1B-442B-96A2-274E6A21AE65}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AC6BED-6E6B-43AC-B690-CD2222CF03DF}">
   <dimension ref="A1:XFA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,7 +5138,7 @@
       <c r="M1" s="104"/>
       <c r="N1" s="104"/>
     </row>
-    <row r="2" spans="1:16381" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16381" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="99"/>
       <c r="B2" s="99"/>
       <c r="C2" s="124" t="s">
@@ -22891,7 +22909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BDDED7-C10A-4804-B5B6-56434A54CAA8}">
   <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -26323,4 +26341,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F83461-C087-4F11-A700-40ECD2D9BD3D}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="206" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="204" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="183" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="181">
+        <v>-0.10538768456838772</v>
+      </c>
+      <c r="D4" s="181">
+        <v>-1.690748951112412E-2</v>
+      </c>
+      <c r="E4" s="181">
+        <v>-8.8480195057263594E-2</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="183" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="181">
+        <v>-0.18470439999999999</v>
+      </c>
+      <c r="D5" s="181">
+        <v>-0.15526770000000001</v>
+      </c>
+      <c r="E5" s="181">
+        <v>-2.943672E-2</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="183" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="181">
+        <v>-0.235347</v>
+      </c>
+      <c r="D6" s="181">
+        <v>-0.20922669999999999</v>
+      </c>
+      <c r="E6" s="181">
+        <v>-2.6120319999999999E-2</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>